--- a/stock.xlsx
+++ b/stock.xlsx
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
@@ -1905,6 +1905,510 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>디바이스이엔지</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>393.8%</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>197.0%</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>22.6%</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>-55.7%</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>225.7%</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>-6.5%</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>44.9%</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>-55.4%</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>223.1%</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>81.5%</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>58.8%</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>케이티앤지</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>390.9%</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>401.1%</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>24.8%</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>-9.7%</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>-6.0%</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>80.1%</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>81.3%</t>
+        </is>
+      </c>
+      <c r="N22" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>SK5호스팩</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>123.7%</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>112.6%</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>134.7%</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>153.0%</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>18.5%</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>8.8%</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>10.5%</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>42.6%</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>39.5%</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>sk</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>123.7%</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>112.6%</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>134.7%</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>153.0%</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>18.5%</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>8.8%</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>10.5%</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>42.6%</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>39.5%</t>
+        </is>
+      </c>
+      <c r="N24" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>123.7%</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>112.6%</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>134.7%</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>153.0%</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>18.5%</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>8.8%</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>10.5%</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>42.6%</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>39.5%</t>
+        </is>
+      </c>
+      <c r="N25" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>한국전력공사</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>90.4%</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>80.4%</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>160.6%</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>186.8%</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>-6.8%</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>10.9%</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>12.7%</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>38.4%</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>34.9%</t>
+        </is>
+      </c>
+      <c r="N26" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>252.9%</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>284.4%</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>37.0%</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>34.1%</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>-7.7%</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>-2.1%</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>73.0%</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>74.6%</t>
+        </is>
+      </c>
+      <c r="N27" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1916,7 +2420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3071,69 +3575,538 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>디바이스이엔지</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>1,153</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>931.6</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>432.3</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>109.2</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="0" t="inlineStr">
         <is>
           <t>163.4</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="0" t="inlineStr">
         <is>
           <t>44.2</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="0" t="inlineStr">
         <is>
           <t>9.5%</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" s="0" t="inlineStr">
         <is>
           <t>17.5%</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="0" t="inlineStr">
         <is>
           <t>10.2%</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" s="0" t="inlineStr">
         <is>
           <t>75.3</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="0" t="inlineStr">
         <is>
           <t>139.3</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" s="0" t="inlineStr">
         <is>
           <t>46.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>디바이스이엔지</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>1,153</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>931.6</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>432.3</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>109.2</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>163.4</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>44.2</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>17.5%</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>75.3</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>139.3</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>46.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>케이티앤지</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>46,672</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>44,715</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>49,632</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>14,411</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>12,535</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>13,796</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>30.9%</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>28.0%</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>27.8%</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>12,114</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>9,034</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>10,372</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>SK5호스팩</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>888,797</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>1,001,616</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>992,646</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>57,184</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>46,838</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>39,499</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>50,665</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>61,511</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>16,072</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>sk</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>888,797</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>1,001,616</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>992,646</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>57,184</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>46,838</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>39,499</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>50,665</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>61,511</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>16,072</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>888,797</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>1,001,616</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>992,646</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>57,184</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>46,838</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>39,499</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>50,665</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>61,511</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>16,072</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>한국전력공사</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>598,149</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>606,276</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>591,729</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>49,532</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>-2,080.0</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>-12,765.2</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>8.3%</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>-2.2%</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>14,414</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>-11,745.0</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>-22,635.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2,395,754</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2,437,714</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2,304,009</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>536,450</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>588,867</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>277,685</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>22.4%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>24.2%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>12.1%</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>421,867</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>443,449</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>217,389</t>
         </is>
       </c>
     </row>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,155 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR\double\stock\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7D405-40E9-4A11-B087-055580EA4DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="3810" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{EC2138F4-630C-400F-938D-A7CB14C3850E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4185" yWindow="3810" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="손익계산서" sheetId="4" r:id="rId1"/>
-    <sheet name="비율지표" sheetId="8" r:id="rId2"/>
-    <sheet name="배당지표" sheetId="2" r:id="rId3"/>
-    <sheet name="투자지표" sheetId="3" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="손익계산서" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="비율지표" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="배당지표" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="투자지표" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
-  <si>
-    <t>회사명</t>
-  </si>
-  <si>
-    <t>매출액</t>
-  </si>
-  <si>
-    <t>영업이익</t>
-  </si>
-  <si>
-    <t>당기순이익</t>
-  </si>
-  <si>
-    <t>손익계산서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자지표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020(E)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부채비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배당성향</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주당배당금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가배당률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배당지표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업이익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순이익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비율지표(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -236,67 +136,134 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -596,72 +563,820 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9A37A2-587D-404F-AF5A-7EBF321490EF}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
+    <col width="11.125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="9" customWidth="1" style="2" min="7" max="7"/>
+    <col width="8.125" customWidth="1" style="2" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" ht="19.5" customHeight="1" s="16" thickBot="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>손익계산서</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4">
+      <c r="D1" s="17" t="inlineStr">
+        <is>
+          <t>2020(E)</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4">
+      <c r="G1" s="17" t="inlineStr">
+        <is>
+          <t>2020(E)</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="J1" s="17" t="inlineStr">
+        <is>
+          <t>2020(E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="16">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>회사명</t>
+        </is>
+      </c>
+      <c r="B2" s="18" t="inlineStr">
+        <is>
+          <t>매출액</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="18" t="inlineStr">
+        <is>
+          <t>영업이익</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="18" t="inlineStr">
+        <is>
+          <t>당기순이익</t>
+        </is>
+      </c>
+      <c r="I2" s="11" t="n"/>
+      <c r="J2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>2,437,714</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>2,304,009</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>2,371,630</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>588,867</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>277,685</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>366,852</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>443,449</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>217,389</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>275,506</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>404,451</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>269,907</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>314,504</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>208,438</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>27,127</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>49,512</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>155,400</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>20,164</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>36,911</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>281,830</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>286,250</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>297,549</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>22,461</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>8,956</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>24,299</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>15,193</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>3,761</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>15,208</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>55,869</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>65,934</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>55,633</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>9,425</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>7,101</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>11,763</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>6,279</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>3,968</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>6,967</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>91,583</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>100,974</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>116,115</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>7,150</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>4,622</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>7,545</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>7,450</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>4,024</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>6,483</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>5,358</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>7,016</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>10,547</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>2,499</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>2,241</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>2,029</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>2,029</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>현대자동차</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>968,126</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>1,057,464</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>1,041,239</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>24,222</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>36,055</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>28,573</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>16,450</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>31,856</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>22,527</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>9,821</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>11,285</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>18,736</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>3,387</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>3,781</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>7,692</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>2,536</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>2,980</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>5,994</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>24,170</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>30,701</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>41,289</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>2,068</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>4,497</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>-3,419</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>4,847</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>기아자동차</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>541,698</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>581,460</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>591,408</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>11,575</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>20,097</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>17,764</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>11,559</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>18,267</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>14,082</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>351,492</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>380,488</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>368,141</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>20,250</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>23,593</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>17,955</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>18,882</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>22,943</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>17,170</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>542,165</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>498,765</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>352,425</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>21,032</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>12,693</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>-23,817</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>16,990</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>-20,273</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>613,417</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>623,062</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>626,262</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>27,033</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>24,361</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>32,058</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>14,728</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>1,799</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>21,290</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>67,475</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>76,854</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>78,412</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>10,393</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>11,764</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>12,241</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>6,923</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>7,882</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>8,366</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -669,79 +1384,824 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5484CDE-B59E-410E-AE8D-A6DC4803D4C4}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
+    <col width="11.125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="9" customWidth="1" style="2" min="7" max="7"/>
+    <col width="8.125" customWidth="1" style="2" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" ht="19.5" customHeight="1" s="16" thickBot="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>비율지표(%)</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4">
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>2020(E)</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4">
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>2020(E)</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+    <row r="2" ht="19.5" customHeight="1" s="16">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>회사명</t>
+        </is>
+      </c>
+      <c r="B2" s="18" t="inlineStr">
+        <is>
+          <t>영업이익률</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="18" t="inlineStr">
+        <is>
+          <t>순이익률</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="18" t="inlineStr">
+        <is>
+          <t>부채비율</t>
+        </is>
+      </c>
+      <c r="I2" s="11" t="n"/>
+      <c r="J2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>34.12</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>51.54</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>38.42</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>67.09</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>12.52</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>66.09</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>56.81</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>41.83</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>현대자동차</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>144.47</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>154.71</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>34.48</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>-11.14</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>기아자동차</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>40.28</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>43.80</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>-6.76</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>-5.75</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>117.06</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>171.84</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>173.12</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -749,79 +2209,820 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EAC041-913E-4012-A521-40AA6FEE22E4}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
+    <col width="11.125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="9" customWidth="1" style="2" min="7" max="7"/>
+    <col width="8.125" customWidth="1" style="2" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" ht="19.5" customHeight="1" s="16" thickBot="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>배당지표</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="3" t="n">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+    <row r="2" ht="19.5" customHeight="1" s="16">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>회사명</t>
+        </is>
+      </c>
+      <c r="B2" s="18" t="inlineStr">
+        <is>
+          <t>주당배당금</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="18" t="inlineStr">
+        <is>
+          <t>시가배당률</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="18" t="inlineStr">
+        <is>
+          <t>배당성향</t>
+        </is>
+      </c>
+      <c r="I2" s="11" t="n"/>
+      <c r="J2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>1,416</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>1,416</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>44.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>31.24</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>49.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>현대자동차</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>35.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>!!!</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>-3.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>기아자동차</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>1,150</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>33.13</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>3,500</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>8,000</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>8,000</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>35.44</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>42.90</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>-740.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>434.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>9,250</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>11,000</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -829,71 +3030,680 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8C71F6-92E2-4736-B940-6475E5AEA218}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col width="11.125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="11.375" customWidth="1" style="2" min="2" max="2"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="9" customWidth="1" style="2" min="6" max="6"/>
+    <col width="9" customWidth="1" style="2" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7">
+    <row r="1" ht="19.5" customHeight="1" s="16" thickBot="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>투자지표</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="n">
         <v>2019</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="7">
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>2020(E)</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="n">
         <v>2019</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="7">
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>2020(E)</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="n">
         <v>2019</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="14"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>2020(E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="16" thickBot="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>회사명</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>주가</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="inlineStr">
+        <is>
+          <t>EPS</t>
+        </is>
+      </c>
+      <c r="D2" s="19" t="n"/>
+      <c r="E2" s="14" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="F2" s="19" t="n"/>
+      <c r="G2" s="14" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="H2" s="19" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>81,600</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>3,166</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>4,021</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>126,000</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>2,766</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>5,074</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>960,000</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>4,003</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>17,452</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>55.87</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>366,500</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>3,538</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>5,102</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>52.72</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>783,000</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>5,066</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>8,450</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>799,000</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>3,067</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>3,067</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>141.20</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>258.92</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>현대자동차</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>245,000</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>10,761</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>6,482</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>332,000</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>2,168</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>4,462</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>489,500</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>-3,585</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>5,182</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>-42.82</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>-5.81</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>기아자동차</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>86,400</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>4,506</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>3,428</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>331,500</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>23,867</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>17,945</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>296,500</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>-381</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>-21,712</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>-393.31</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>-12.80</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>-12.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>167,500</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>10,979</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>416.75</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1,672,000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>43,916</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>46,567</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>33.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -901,8 +3711,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR\double\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61598BEE-D9D4-4B25-9545-A8E1491CD5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A078204-6B1B-4CE5-BF34-8C86795A4D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC2138F4-630C-400F-938D-A7CB14C3850E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>매출액</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -192,13 +196,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,22 +243,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,155 +583,159 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.69921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.3984375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="2" customWidth="1"/>
-    <col min="12" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" customWidth="1"/>
-    <col min="15" max="16" width="7.5" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.19921875" customWidth="1"/>
-    <col min="19" max="19" width="8.19921875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.19921875" customWidth="1"/>
-    <col min="21" max="21" width="8.19921875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.19921875" customWidth="1"/>
-    <col min="23" max="23" width="8.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="9" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7.5" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.19921875" customWidth="1"/>
+    <col min="20" max="20" width="8.19921875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.19921875" customWidth="1"/>
+    <col min="22" max="22" width="8.19921875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.19921875" customWidth="1"/>
+    <col min="24" max="24" width="8.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>2018</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>2019</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2018</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>2019</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>2018</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>2019</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>2018</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>2019</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>2018</v>
       </c>
-      <c r="P1" s="3">
+      <c r="Q1" s="3">
         <v>2019</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="8">
+      <c r="S1" s="8">
         <v>2019</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="8">
+      <c r="U1" s="8">
         <v>2019</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="8">
+      <c r="W1" s="8">
         <v>2019</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="17"/>
+      <c r="W2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="10"/>
+      <c r="X2" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
